--- a/Financials/Quarterly/NTRS_QTR_FIN.xlsx
+++ b/Financials/Quarterly/NTRS_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B867F06A-7073-4B47-BBF2-E90C189595EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NTRS" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>NTRS</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,148 +689,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1661700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1599300</v>
+      </c>
+      <c r="F8" s="3">
         <v>1600900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1548600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1490900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1407800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1365500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1314500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1263800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1235500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>157900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>125000</v>
+      </c>
+      <c r="F9" s="3">
         <v>94800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>72600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>66400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>62600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>44300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>30100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>22400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1503800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1474300</v>
+      </c>
+      <c r="F10" s="3">
         <v>1506100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1476000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1424500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1345200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1321200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1284400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1241400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1213700</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,8 +866,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,8 +897,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,66 +932,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F14" s="3">
         <v>7000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>6100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>15200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>6600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>22800</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E15" s="3">
         <v>4300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G15" s="3">
         <v>4500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>4400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>2300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>2300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>2400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +1018,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1175800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1118300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1093700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1064900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1055300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>991200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>974700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>923600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>874300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>861800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>485900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>481000</v>
+      </c>
+      <c r="F18" s="3">
         <v>507200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>483700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>435600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>416600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>390800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>390900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>389500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>373700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,8 +1103,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1033,37 +1134,49 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>599900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>594700</v>
+      </c>
+      <c r="F21" s="3">
         <v>624500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>599600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>546100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>521400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>495900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>492200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>486100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>465500</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1091,66 +1204,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>485900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>481000</v>
+      </c>
+      <c r="F23" s="3">
         <v>507200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>483700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>435600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>416600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>390800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>390900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>389500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>373700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>91100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>112000</v>
+      </c>
+      <c r="F24" s="3">
         <v>116800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>86300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>132100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>118200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>122900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>114800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>123000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>116100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1309,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>394800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>369000</v>
+      </c>
+      <c r="F26" s="3">
         <v>390400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>397400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>303500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>298400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>267900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>276100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>266500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>257600</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>383100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>347600</v>
+      </c>
+      <c r="F27" s="3">
         <v>379500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>374900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>292100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>276700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>257600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>250900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>255700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>246900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,25 +1414,31 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>15100</v>
       </c>
       <c r="E29" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-15800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>53100</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1294,8 +1449,14 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1484,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,8 +1519,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1381,37 +1554,49 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>398200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>353100</v>
+      </c>
+      <c r="F33" s="3">
         <v>379500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>359100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>345200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>276700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>257600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>250900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>255700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>246900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1624,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>398200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>353100</v>
+      </c>
+      <c r="F35" s="3">
         <v>379500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>359100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>345200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>276700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>257600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>250900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>255700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>246900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1718,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,37 +1733,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4581600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5073400</v>
+      </c>
+      <c r="F41" s="3">
         <v>4888100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6081400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4518100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5262900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>5694800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4649200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5332000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4892700</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1586,8 +1799,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1615,8 +1834,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1644,8 +1869,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1673,8 +1904,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1702,95 +1939,119 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>119130100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>118921300</v>
+      </c>
+      <c r="F47" s="3">
         <v>120767300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>116497200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>126667900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>119258400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>112762900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>110388300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>111611400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>108052900</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>428200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>417200</v>
+      </c>
+      <c r="F48" s="3">
         <v>428800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>442600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>464600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>462500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>463300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>459900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>466600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>438800</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>669300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>672700</v>
+      </c>
+      <c r="F49" s="3">
         <v>673500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>611600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>605600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>526500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>523100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>560400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>561200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>569800</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +2079,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,8 +2114,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1876,8 +2149,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2184,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>132212500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>132378500</v>
+      </c>
+      <c r="F54" s="3">
         <v>135106200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>129672200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>138590500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>131400200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>125605700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>121488700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>123926900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>120085000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2238,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,8 +2253,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1989,37 +2284,49 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>115161000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>115227300</v>
+      </c>
+      <c r="F58" s="3">
         <v>118363300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>113367800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>121562000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>114529000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>108986400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>105409300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>107439700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>104154000</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2047,8 +2354,14 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2076,37 +2389,49 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3401300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3370300</v>
+      </c>
+      <c r="F61" s="3">
         <v>3185800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3197600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3224300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3438000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3446100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3096000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3104900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3174700</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2134,8 +2459,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2494,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2529,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2564,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>121704200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>122014000</v>
+      </c>
+      <c r="F66" s="3">
         <v>124748600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>119446200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>128374300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>121235000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>115537800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>111511000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>114156500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>110505200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2618,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2649,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,8 +2684,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2350,8 +2719,14 @@
       <c r="K70" s="3">
         <v>882000</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>882000</v>
+      </c>
+      <c r="M70" s="3">
+        <v>882000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2754,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10776800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>10496300</v>
+      </c>
+      <c r="F72" s="3">
         <v>10262500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>9973800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>9685100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>9431200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>9247500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>9074400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>8908400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>8736100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2824,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2859,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2894,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9626300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9482500</v>
+      </c>
+      <c r="F76" s="3">
         <v>9475600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>9344000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>9334200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>9283200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>9185900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>9095700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8888400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8697800</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2964,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>398200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>353100</v>
+      </c>
+      <c r="F81" s="3">
         <v>379500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>359100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>345200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>276700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>257600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>250900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>255700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>246900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,37 +3058,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>109800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>109400</v>
+      </c>
+      <c r="F83" s="3">
         <v>112900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>111400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>106100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>102500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>102800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>98900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>94100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +3124,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +3159,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +3194,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +3229,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3264,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>459100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1453900</v>
+      </c>
+      <c r="F89" s="3">
         <v>332300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-477800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>850700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>557100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-472100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>784700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>838500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1178700</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3318,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-111700</v>
+        <v>-58600</v>
       </c>
       <c r="E91" s="3">
-        <v>-85800</v>
+        <v>-15700</v>
       </c>
       <c r="F91" s="3">
-        <v>-120900</v>
+        <v>-17300</v>
       </c>
       <c r="G91" s="3">
-        <v>-132500</v>
+        <v>-6000</v>
       </c>
       <c r="H91" s="3">
-        <v>-125200</v>
+        <v>-27900</v>
       </c>
       <c r="I91" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-94200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-165000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3384,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3419,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1021100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1730700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7538700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>11156200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-8055900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5667700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1324500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>1026500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4939400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-322300</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,37 +3473,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-121800</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-94600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-95000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-95600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-87000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-87300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-86900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-86100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-81800</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3539,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3574,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3609,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2939600</v>
+      </c>
+      <c r="F100" s="3">
         <v>6210800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-9167200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>6436100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>4632500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2891700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-2707600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4715400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1307300</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-197700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>52100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>24300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>46200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-49500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>213600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-175200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-491800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>185300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1193300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1563300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-744800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-431900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1045600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-682800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>439300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-419400</v>
       </c>
     </row>

--- a/Financials/Quarterly/NTRS_QTR_FIN.xlsx
+++ b/Financials/Quarterly/NTRS_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B867F06A-7073-4B47-BBF2-E90C189595EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="NTRS" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>NTRS</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,172 +654,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1666000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1651800</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1645900</v>
+      </c>
+      <c r="G8" s="3">
         <v>1661700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>1599300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>1600900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>1548600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>1490900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>1407800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>1365500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>1314500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>1263800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>1235500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>143100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>165000</v>
+      </c>
+      <c r="G9" s="3">
         <v>157900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>125000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>94800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>72600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>66400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>62600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>44300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>30100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>22400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1537900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1508700</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1480900</v>
+      </c>
+      <c r="G10" s="3">
         <v>1503800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>1474300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>1506100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>1476000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>1424500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>1345200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>1321200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>1284400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>1241400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>1213700</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +869,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -903,8 +907,17 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -938,43 +951,61 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>5000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="I14" s="3">
         <v>7000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="J14" s="3">
         <v>6100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="K14" s="3">
         <v>15200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>6600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>22800</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,34 +1013,43 @@
         <v>4200</v>
       </c>
       <c r="E15" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H15" s="3">
         <v>4300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="I15" s="3">
         <v>4300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="J15" s="3">
         <v>4500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="K15" s="3">
         <v>4400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>2300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>2300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>2400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>2500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,78 +1060,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1157400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1144900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1193700</v>
+      </c>
+      <c r="G17" s="3">
         <v>1175800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>1118300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>1093700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>1064900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>1055300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>991200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>974700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>923600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>874300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>861800</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>508600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>506900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>452200</v>
+      </c>
+      <c r="G18" s="3">
         <v>485900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>481000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>507200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>483700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>435600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>416600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>390800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>390900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>389500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>373700</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1105,8 +1166,11 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1140,43 +1204,61 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>623900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>619300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>566100</v>
+      </c>
+      <c r="G21" s="3">
         <v>599900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>594700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>624500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>599600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>546100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>521400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>495900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>492200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>486100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>465500</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1210,78 +1292,105 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>508600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>506900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>452200</v>
+      </c>
+      <c r="G23" s="3">
         <v>485900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>481000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>507200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>483700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>435600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>416600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>390800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>390900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>389500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>373700</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>117500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>105100</v>
+      </c>
+      <c r="G24" s="3">
         <v>91100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="H24" s="3">
         <v>112000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
         <v>116800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>86300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
         <v>132100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>118200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>122900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>114800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>123000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>116100</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1315,78 +1424,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>384600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>389400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>347100</v>
+      </c>
+      <c r="G26" s="3">
         <v>394800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>369000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>390400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>397400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>303500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>298400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>267900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>276100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>266500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>257600</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>362700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>379700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>325500</v>
+      </c>
+      <c r="G27" s="3">
         <v>383100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>347600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>379500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>374900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>292100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>276700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>257600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>250900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>255700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>246900</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1420,34 +1556,43 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>15100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="H29" s="3">
         <v>5500</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-15800</v>
       </c>
-      <c r="H29" s="3">
+      <c r="K29" s="3">
         <v>53100</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1455,8 +1600,17 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1490,8 +1644,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1525,8 +1688,17 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1560,43 +1732,61 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>362700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>379700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>325500</v>
+      </c>
+      <c r="G33" s="3">
         <v>398200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>353100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>379500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>359100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>345200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>276700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>257600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>250900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>255700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>246900</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1630,83 +1820,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>362700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>379700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>325500</v>
+      </c>
+      <c r="G35" s="3">
         <v>398200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>353100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>379500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>359100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>345200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>276700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>257600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>250900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>255700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>246900</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1720,8 +1937,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1735,43 +1955,55 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5037600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5348300</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5074100</v>
+      </c>
+      <c r="G41" s="3">
         <v>4581600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>5073400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>4888100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>6081400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>4518100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>5262900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>5694800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>4649200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>5332000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>4892700</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1805,8 +2037,17 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1840,8 +2081,17 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,8 +2125,17 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1910,8 +2169,17 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1945,113 +2213,149 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>108145900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>111498600</v>
+      </c>
+      <c r="F47" s="3">
+        <v>107543600</v>
+      </c>
+      <c r="G47" s="3">
         <v>119130100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="H47" s="3">
         <v>118921300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="I47" s="3">
         <v>120767300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="J47" s="3">
         <v>116497200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="K47" s="3">
         <v>126667900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>119258400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>112762900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>110388300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>111611400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>108052900</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>867000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>844000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>871900</v>
+      </c>
+      <c r="G48" s="3">
         <v>428200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>417200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>428800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>442600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>464600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>462500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>463300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>459900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>466600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>438800</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>687200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>682000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>683000</v>
+      </c>
+      <c r="G49" s="3">
         <v>669300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>672700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>673500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="J49" s="3">
         <v>611600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3">
         <v>605600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>526500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>523100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>560400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>561200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>569800</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2085,8 +2389,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2120,8 +2433,17 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2155,8 +2477,17 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2190,43 +2521,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>124355800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>126550900</v>
+      </c>
+      <c r="F54" s="3">
+        <v>121869400</v>
+      </c>
+      <c r="G54" s="3">
         <v>132212500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>132378500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>135106200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>129672200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>138590500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>131400200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>125605700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>121488700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>123926900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>120085000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2240,8 +2589,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2255,8 +2607,11 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2290,66 +2645,84 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>105530000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>108490000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>104285500</v>
+      </c>
+      <c r="G58" s="3">
         <v>115161000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>115227300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>118363300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>113367800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>121562000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>114529000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>108986400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>105409300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>107439700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>104154000</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>552400</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>492000</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>509700</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2360,8 +2733,17 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2395,43 +2777,61 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4034900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3990800</v>
+      </c>
+      <c r="F61" s="3">
+        <v>3427500</v>
+      </c>
+      <c r="G61" s="3">
         <v>3401300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>3370300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>3185800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>3197600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>3224300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>3438000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>3446100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>3096000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>3104900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>3174700</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2465,8 +2865,17 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2500,8 +2909,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2535,8 +2953,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2570,43 +2997,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>113544500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>115745400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>111253200</v>
+      </c>
+      <c r="G66" s="3">
         <v>121704200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>122014000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>124748600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>119446200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>128374300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>121235000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>115537800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>111511000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>114156500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>110505200</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2620,8 +3065,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2655,8 +3103,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2690,8 +3147,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2725,8 +3191,17 @@
       <c r="M70" s="3">
         <v>882000</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>882000</v>
+      </c>
+      <c r="O70" s="3">
+        <v>882000</v>
+      </c>
+      <c r="P70" s="3">
+        <v>882000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2760,43 +3235,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11441200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>11225500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>10972900</v>
+      </c>
+      <c r="G72" s="3">
         <v>10776800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>10496300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>10262500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>9973800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>9685100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>9431200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>9247500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>9074400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>8908400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>8736100</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2830,8 +3323,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2865,8 +3367,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2900,43 +3411,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9929300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9923500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>9734200</v>
+      </c>
+      <c r="G76" s="3">
         <v>9626300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>9482500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>9475600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>9344000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>9334200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>9283200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>9185900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>9095700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>8888400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>8697800</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2970,83 +3499,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>362700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>379700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>325500</v>
+      </c>
+      <c r="G81" s="3">
         <v>398200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>353100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>379500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>359100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>345200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>276700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>257600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>250900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>255700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>246900</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3060,43 +3616,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>111100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>108300</v>
+      </c>
+      <c r="F83" s="3">
+        <v>109700</v>
+      </c>
+      <c r="G83" s="3">
         <v>109800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="H83" s="3">
         <v>109400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
         <v>112900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>111400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="K83" s="3">
         <v>106100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>102500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>102800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>98900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>94100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3130,8 +3698,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3165,8 +3742,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3200,8 +3786,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3235,8 +3830,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3270,43 +3874,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>577100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>84800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>293700</v>
+      </c>
+      <c r="G89" s="3">
         <v>459100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>1453900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>332300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-477800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>850700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>557100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-472100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>784700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>838500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>1178700</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3320,43 +3942,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-58600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="H91" s="3">
         <v>-15700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-17300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-6000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="K91" s="3">
         <v>-27900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-23600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-25800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-94200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-165000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3390,8 +4024,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3425,43 +4068,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1667100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-4276300</v>
+      </c>
+      <c r="F94" s="3">
+        <v>11607600</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1021100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="H94" s="3">
         <v>1730700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>-7538700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>11156200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-8055900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-5667700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-1324500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>1026500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-4939400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-322300</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3475,43 +4136,55 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-129100</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-131100</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-120800</v>
+      </c>
+      <c r="G96" s="3">
         <v>-121800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="H96" s="3">
         <v>-94000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="I96" s="3">
         <v>-94600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="J96" s="3">
         <v>-95000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="K96" s="3">
         <v>-95600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="L96" s="3">
         <v>-87000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="M96" s="3">
         <v>-87300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="N96" s="3">
         <v>-86900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="O96" s="3">
         <v>-86100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="P96" s="3">
         <v>-81800</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3545,8 +4218,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3580,8 +4262,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3615,109 +4306,145 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2483500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4431000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-11446400</v>
+      </c>
+      <c r="G100" s="3">
         <v>77800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>-2939600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>6210800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>-9167200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>6436100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>4632500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>2891700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-2707600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>4715400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-1307300</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-71400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>34700</v>
+      </c>
+      <c r="F101" s="3">
+        <v>37600</v>
+      </c>
+      <c r="G101" s="3">
         <v>-7600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="H101" s="3">
         <v>-59700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="I101" s="3">
         <v>-197700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="J101" s="3">
         <v>52100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="K101" s="3">
         <v>24300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>46200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>-49500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>213600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>-175200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-310700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>274200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>492500</v>
+      </c>
+      <c r="G102" s="3">
         <v>-491800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>185300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>-1193300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>1563300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>-744800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-431900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>1045600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-682800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>439300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>-419400</v>
       </c>
     </row>
